--- a/Conjoncture - comptes trimestriels/data/conso_alim.xlsx
+++ b/Conjoncture - comptes trimestriels/data/conso_alim.xlsx
@@ -372,3277 +372,3874 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>smpt_cnt_marng</t>
+          <t>Composante</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>deflateur_conso_men</t>
+          <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>17899</v>
-      </c>
-      <c r="B2">
-        <v>0.8491907812447588</v>
+        <v>44927</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C2">
-        <v>5.188756779298583</v>
+        <v>40.423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>17989</v>
-      </c>
-      <c r="B3">
-        <v>0.8730155635121121</v>
+        <v>44835</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C3">
-        <v>5.225132791267296</v>
+        <v>41.458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>18080</v>
-      </c>
-      <c r="B4">
-        <v>0.8787725625846997</v>
+        <v>44743</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C4">
-        <v>5.379031435564849</v>
+        <v>42.603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>18172</v>
-      </c>
-      <c r="B5">
-        <v>0.8796100058915222</v>
+        <v>44652</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C5">
-        <v>5.40426462481145</v>
+        <v>43.152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>18264</v>
-      </c>
-      <c r="B6">
-        <v>0.9042655554554397</v>
+        <v>44562</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C6">
-        <v>5.481021975154395</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>18354</v>
-      </c>
-      <c r="B7">
-        <v>0.9405597879578467</v>
+        <v>44470</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C7">
-        <v>5.581417474423003</v>
+        <v>44.804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>18445</v>
-      </c>
-      <c r="B8">
-        <v>0.9760210749209942</v>
+        <v>44378</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C8">
-        <v>5.815525722700152</v>
+        <v>44.746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>18537</v>
-      </c>
-      <c r="B9">
-        <v>1.019412487212625</v>
+        <v>44287</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C9">
-        <v>5.973672630970766</v>
+        <v>44.779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>18629</v>
-      </c>
-      <c r="B10">
-        <v>1.07771210408425</v>
+        <v>44197</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C10">
-        <v>6.278230242256119</v>
+        <v>45.792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>18719</v>
-      </c>
-      <c r="B11">
-        <v>1.167269922673007</v>
+        <v>44105</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C11">
-        <v>6.601430309451767</v>
+        <v>45.392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>18810</v>
-      </c>
-      <c r="B12">
-        <v>1.273746886823017</v>
+        <v>44013</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C12">
-        <v>6.845106570988098</v>
+        <v>44.739</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>18902</v>
-      </c>
-      <c r="B13">
-        <v>1.37275407462468</v>
+        <v>43922</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C13">
-        <v>7.193753095102819</v>
+        <v>45.837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>18994</v>
-      </c>
-      <c r="B14">
-        <v>1.431107529204985</v>
+        <v>43831</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C14">
-        <v>7.434708611341954</v>
+        <v>44.985</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>19085</v>
-      </c>
-      <c r="B15">
-        <v>1.468306863428219</v>
+        <v>43739</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C15">
-        <v>7.476659431688189</v>
+        <v>43.443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>19176</v>
-      </c>
-      <c r="B16">
-        <v>1.488277961117183</v>
+        <v>43647</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C16">
-        <v>7.507783676537565</v>
+        <v>43.851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>19268</v>
-      </c>
-      <c r="B17">
-        <v>1.49822419358674</v>
+        <v>43556</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C17">
-        <v>7.47752501693661</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>19360</v>
-      </c>
-      <c r="B18">
-        <v>1.506194188890804</v>
+        <v>43466</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C18">
-        <v>7.458315529277384</v>
+        <v>43.883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>19450</v>
-      </c>
-      <c r="B19">
-        <v>1.525712997649812</v>
+        <v>43374</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C19">
-        <v>7.451140974457009</v>
+        <v>44.312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>19541</v>
-      </c>
-      <c r="B20">
-        <v>1.541266721780604</v>
+        <v>43282</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C20">
-        <v>7.452191479820907</v>
+        <v>44.365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>19633</v>
-      </c>
-      <c r="B21">
-        <v>1.564171425531726</v>
+        <v>43191</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C21">
-        <v>7.415078446313619</v>
+        <v>43.892</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>19725</v>
-      </c>
-      <c r="B22">
-        <v>1.601516644844701</v>
+        <v>43101</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C22">
-        <v>7.478460530834282</v>
+        <v>44.607</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>19815</v>
-      </c>
-      <c r="B23">
-        <v>1.639931618093995</v>
+        <v>43009</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C23">
-        <v>7.538679610532231</v>
+        <v>44.399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>19906</v>
-      </c>
-      <c r="B24">
-        <v>1.659324526925198</v>
+        <v>42917</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C24">
-        <v>7.577511725024044</v>
+        <v>44.577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>19998</v>
-      </c>
-      <c r="B25">
-        <v>1.687831977378362</v>
+        <v>42826</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C25">
-        <v>7.601398275636432</v>
+        <v>44.442</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>20090</v>
-      </c>
-      <c r="B26">
-        <v>1.718207698417536</v>
+        <v>42736</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C26">
-        <v>7.565468246246692</v>
+        <v>44.509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>20180</v>
-      </c>
-      <c r="B27">
-        <v>1.753671733063912</v>
+        <v>42644</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C27">
-        <v>7.609071795471643</v>
+        <v>44.171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>20271</v>
-      </c>
-      <c r="B28">
-        <v>1.802042902214632</v>
+        <v>42552</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C28">
-        <v>7.65249719807664</v>
+        <v>44.326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>20363</v>
-      </c>
-      <c r="B29">
-        <v>1.85449389268958</v>
+        <v>42461</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C29">
-        <v>7.740565667003716</v>
+        <v>43.607</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>20455</v>
-      </c>
-      <c r="B30">
-        <v>1.903941257286288</v>
+        <v>42370</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C30">
-        <v>7.85726543065982</v>
+        <v>44.113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>20546</v>
-      </c>
-      <c r="B31">
-        <v>1.950641658434217</v>
+        <v>42278</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C31">
-        <v>7.943410665399978</v>
+        <v>44.046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>20637</v>
-      </c>
-      <c r="B32">
-        <v>1.994546480431703</v>
+        <v>42186</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C32">
-        <v>8.068547723190147</v>
+        <v>43.958</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>20729</v>
-      </c>
-      <c r="B33">
-        <v>2.034838093370646</v>
+        <v>42095</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C33">
-        <v>8.151628243785137</v>
+        <v>44.044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>20821</v>
-      </c>
-      <c r="B34">
-        <v>2.073745746703577</v>
+        <v>42005</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C34">
-        <v>8.155872600756444</v>
+        <v>43.767</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>20911</v>
-      </c>
-      <c r="B35">
-        <v>2.122467443404767</v>
+        <v>41913</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C35">
-        <v>8.303760876637499</v>
+        <v>43.705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>21002</v>
-      </c>
-      <c r="B36">
-        <v>2.185587430859683</v>
+        <v>41821</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C36">
-        <v>8.573066414307402</v>
+        <v>43.287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>21094</v>
-      </c>
-      <c r="B37">
-        <v>2.267010920722201</v>
+        <v>41730</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C37">
-        <v>8.884622949202166</v>
+        <v>43.375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>21186</v>
-      </c>
-      <c r="B38">
-        <v>2.356495759221476</v>
+        <v>41640</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C38">
-        <v>9.249300491203408</v>
+        <v>43.127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>21276</v>
-      </c>
-      <c r="B39">
-        <v>2.435865930981611</v>
+        <v>41548</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C39">
-        <v>9.523186139619947</v>
+        <v>43.483</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>21367</v>
-      </c>
-      <c r="B40">
-        <v>2.493992257901252</v>
+        <v>41456</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C40">
-        <v>9.636305860476813</v>
+        <v>43.628</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>21459</v>
-      </c>
-      <c r="B41">
-        <v>2.539972479072948</v>
+        <v>41365</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C41">
-        <v>9.722332610309072</v>
+        <v>43.067</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>21551</v>
-      </c>
-      <c r="B42">
-        <v>2.600202930235882</v>
+        <v>41275</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C42">
-        <v>9.95891609787633</v>
+        <v>43.548</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>21641</v>
-      </c>
-      <c r="B43">
-        <v>2.672804254225795</v>
+        <v>41183</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C43">
-        <v>10.05790140951776</v>
+        <v>43.121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>21732</v>
-      </c>
-      <c r="B44">
-        <v>2.72967539744764</v>
+        <v>41091</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C44">
-        <v>10.1538034645256</v>
+        <v>43.544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>21824</v>
-      </c>
-      <c r="B45">
-        <v>2.782636423229237</v>
+        <v>41000</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C45">
-        <v>10.2675778858618</v>
+        <v>43.249</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>21916</v>
-      </c>
-      <c r="B46">
-        <v>2.832251654191023</v>
+        <v>40909</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C46">
-        <v>10.33492654799759</v>
+        <v>43.327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>22007</v>
-      </c>
-      <c r="B47">
-        <v>2.886621313544409</v>
+        <v>40817</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C47">
-        <v>10.40512156518368</v>
+        <v>43.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>22098</v>
-      </c>
-      <c r="B48">
-        <v>2.956180398830456</v>
+        <v>40725</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C48">
-        <v>10.45936154329116</v>
+        <v>43.351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>22190</v>
-      </c>
-      <c r="B49">
-        <v>3.041664161341604</v>
+        <v>40634</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C49">
-        <v>10.51469652496469</v>
+        <v>43.275</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>22282</v>
-      </c>
-      <c r="B50">
-        <v>3.119407382274644</v>
+        <v>40544</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C50">
-        <v>10.56526066944863</v>
+        <v>43.247</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>22372</v>
-      </c>
-      <c r="B51">
-        <v>3.212721695249493</v>
+        <v>40452</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C51">
-        <v>10.685882802199</v>
+        <v>43.215</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>22463</v>
-      </c>
-      <c r="B52">
-        <v>3.303024425750329</v>
+        <v>40360</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C52">
-        <v>10.7721408521214</v>
+        <v>42.892</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>22555</v>
-      </c>
-      <c r="B53">
-        <v>3.396120912144703</v>
+        <v>40269</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C53">
-        <v>10.88258418831709</v>
+        <v>42.569</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>22647</v>
-      </c>
-      <c r="B54">
-        <v>3.493356435221151</v>
+        <v>40179</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C54">
-        <v>11.04489721714961</v>
+        <v>42.152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>22737</v>
-      </c>
-      <c r="B55">
-        <v>3.573421578077889</v>
+        <v>40087</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C55">
-        <v>11.16916319581291</v>
+        <v>41.919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>22828</v>
-      </c>
-      <c r="B56">
-        <v>3.655161594257057</v>
+        <v>39995</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C56">
-        <v>11.24175053186801</v>
+        <v>41.881</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>22920</v>
-      </c>
-      <c r="B57">
-        <v>3.748318636134292</v>
+        <v>39904</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C57">
-        <v>11.32147356347166</v>
+        <v>41.921</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>23012</v>
-      </c>
-      <c r="B58">
-        <v>3.86378036145433</v>
+        <v>39814</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C58">
-        <v>11.36308744575279</v>
+        <v>41.641</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>23102</v>
-      </c>
-      <c r="B59">
-        <v>3.967590029899334</v>
+        <v>39722</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C59">
-        <v>11.65868965831458</v>
+        <v>41.792</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>23193</v>
-      </c>
-      <c r="B60">
-        <v>4.06493817556728</v>
+        <v>39630</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C60">
-        <v>11.8938308056232</v>
+        <v>41.801</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>23285</v>
-      </c>
-      <c r="B61">
-        <v>4.160859308121568</v>
+        <v>39539</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C61">
-        <v>11.97942733840128</v>
+        <v>41.395</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>23377</v>
-      </c>
-      <c r="B62">
-        <v>4.250569794818757</v>
+        <v>39448</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C62">
-        <v>11.99350025407224</v>
+        <v>41.565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>23468</v>
-      </c>
-      <c r="B63">
-        <v>4.340810187240263</v>
+        <v>39356</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C63">
-        <v>12.0582845919126</v>
+        <v>42.055</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>23559</v>
-      </c>
-      <c r="B64">
-        <v>4.417578180326976</v>
+        <v>39264</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C64">
-        <v>12.15672720908806</v>
+        <v>41.972</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>23651</v>
-      </c>
-      <c r="B65">
-        <v>4.503929257029511</v>
+        <v>39173</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C65">
-        <v>12.24459772140966</v>
+        <v>41.934</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>23743</v>
-      </c>
-      <c r="B66">
-        <v>4.577614672233522</v>
+        <v>39083</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C66">
-        <v>12.33509999935441</v>
+        <v>41.496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>23833</v>
-      </c>
-      <c r="B67">
-        <v>4.656367264522501</v>
+        <v>38991</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C67">
-        <v>12.38619703236954</v>
+        <v>41.205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>23924</v>
-      </c>
-      <c r="B68">
-        <v>4.728436508337452</v>
+        <v>38899</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C68">
-        <v>12.44057635988123</v>
+        <v>41.629</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>24016</v>
-      </c>
-      <c r="B69">
-        <v>4.802538901575581</v>
+        <v>38808</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C69">
-        <v>12.55492209266413</v>
+        <v>41.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>24108</v>
-      </c>
-      <c r="B70">
-        <v>4.868455810900294</v>
+        <v>38718</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C70">
-        <v>12.7012832991335</v>
+        <v>41.054</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>24198</v>
-      </c>
-      <c r="B71">
-        <v>4.944983875678694</v>
+        <v>38626</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C71">
-        <v>12.74300054553808</v>
+        <v>40.971</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>24289</v>
-      </c>
-      <c r="B72">
-        <v>5.024101936111255</v>
+        <v>38534</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C72">
-        <v>12.84246888281377</v>
+        <v>40.777</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>24381</v>
-      </c>
-      <c r="B73">
-        <v>5.118451648458621</v>
+        <v>38443</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C73">
-        <v>12.91520954616321</v>
+        <v>40.413</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>24473</v>
-      </c>
-      <c r="B74">
-        <v>5.230686994191483</v>
+        <v>38353</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C74">
-        <v>13.04949066905654</v>
+        <v>40.803</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>24563</v>
-      </c>
-      <c r="B75">
-        <v>5.304831389432403</v>
+        <v>38261</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C75">
-        <v>13.13292644910256</v>
+        <v>40.608</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>24654</v>
-      </c>
-      <c r="B76">
-        <v>5.390434163577398</v>
+        <v>38169</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C76">
-        <v>13.22704773898801</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>24746</v>
-      </c>
-      <c r="B77">
-        <v>5.496333778511399</v>
+        <v>38078</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C77">
-        <v>13.37586740256849</v>
+        <v>40.209</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>24838</v>
-      </c>
-      <c r="B78">
-        <v>5.668877769776167</v>
+        <v>37987</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C78">
-        <v>13.59319649022298</v>
+        <v>39.946</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>24929</v>
-      </c>
-      <c r="B79">
-        <v>5.685378431049752</v>
+        <v>37895</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C79">
-        <v>13.64386180814858</v>
+        <v>40.426</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>25020</v>
-      </c>
-      <c r="B80">
-        <v>6.216675876586934</v>
+        <v>37803</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C80">
-        <v>13.98488122105015</v>
+        <v>41.17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>25112</v>
-      </c>
-      <c r="B81">
-        <v>6.360162453841646</v>
+        <v>37712</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C81">
-        <v>14.19066178293119</v>
+        <v>41.063</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>25204</v>
-      </c>
-      <c r="B82">
-        <v>6.451870154634884</v>
+        <v>37622</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C82">
-        <v>14.56030761031827</v>
+        <v>40.634</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>25294</v>
-      </c>
-      <c r="B83">
-        <v>6.587759953685464</v>
+        <v>37530</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C83">
-        <v>14.73228732737369</v>
+        <v>41.231</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>25385</v>
-      </c>
-      <c r="B84">
-        <v>6.74089903481438</v>
+        <v>37438</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C84">
-        <v>14.92119804477631</v>
+        <v>40.942</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>25477</v>
-      </c>
-      <c r="B85">
-        <v>6.950805075921111</v>
+        <v>37347</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C85">
-        <v>15.14880197670736</v>
+        <v>40.478</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>25569</v>
-      </c>
-      <c r="B86">
-        <v>7.173883913534701</v>
+        <v>37257</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C86">
-        <v>15.27232896236584</v>
+        <v>40.833</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>25659</v>
-      </c>
-      <c r="B87">
-        <v>7.353801570101515</v>
+        <v>37165</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C87">
-        <v>15.48789111219538</v>
+        <v>40.735</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>25750</v>
-      </c>
-      <c r="B88">
-        <v>7.535710870041267</v>
+        <v>37073</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C88">
-        <v>15.70200776628198</v>
+        <v>40.451</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>25842</v>
-      </c>
-      <c r="B89">
-        <v>7.755095858843799</v>
+        <v>36982</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C89">
-        <v>15.85323302764848</v>
+        <v>40.403</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>25934</v>
-      </c>
-      <c r="B90">
-        <v>8.000324816683243</v>
+        <v>36892</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C90">
-        <v>16.08810950954659</v>
+        <v>40.273</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>26024</v>
-      </c>
-      <c r="B91">
-        <v>8.188084737705571</v>
+        <v>36800</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C91">
-        <v>16.36402806574619</v>
+        <v>40.071</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>26115</v>
-      </c>
-      <c r="B92">
-        <v>8.42018183468344</v>
+        <v>36708</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C92">
-        <v>16.56059227415542</v>
+        <v>40.64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>26207</v>
-      </c>
-      <c r="B93">
-        <v>8.658954997207481</v>
+        <v>36617</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C93">
-        <v>16.81333637887444</v>
+        <v>39.856</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>26299</v>
-      </c>
-      <c r="B94">
-        <v>8.824321934584425</v>
+        <v>36526</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C94">
-        <v>17.01041661635255</v>
+        <v>39.628</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>26390</v>
-      </c>
-      <c r="B95">
-        <v>9.051798397929051</v>
+        <v>36434</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C95">
-        <v>17.25665766817869</v>
+        <v>39.956</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>26481</v>
-      </c>
-      <c r="B96">
-        <v>9.289240090125862</v>
+        <v>36342</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C96">
-        <v>17.56417475784828</v>
+        <v>39.281</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>26573</v>
-      </c>
-      <c r="B97">
-        <v>9.595719523429858</v>
+        <v>36251</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C97">
-        <v>17.86325109598417</v>
+        <v>39.189</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>26665</v>
-      </c>
-      <c r="B98">
-        <v>9.890999604770427</v>
+        <v>36161</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C98">
-        <v>18.02601973705382</v>
+        <v>38.917</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>26755</v>
-      </c>
-      <c r="B99">
-        <v>10.2014068076648</v>
+        <v>36069</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C99">
-        <v>18.38410076983743</v>
+        <v>39.037</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>26846</v>
-      </c>
-      <c r="B100">
-        <v>10.57379787753804</v>
+        <v>35977</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C100">
-        <v>18.90081571076993</v>
+        <v>38.833</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>26938</v>
-      </c>
-      <c r="B101">
-        <v>10.93667507040117</v>
+        <v>35886</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C101">
-        <v>19.43837674662527</v>
+        <v>38.954</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>27030</v>
-      </c>
-      <c r="B102">
-        <v>11.41647520256763</v>
+        <v>35796</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C102">
-        <v>20.281102431948</v>
+        <v>38.351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>27120</v>
-      </c>
-      <c r="B103">
-        <v>11.95224450784069</v>
+        <v>35704</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C103">
-        <v>21.09503830203519</v>
+        <v>38.542</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>27211</v>
-      </c>
-      <c r="B104">
-        <v>12.54492784888724</v>
+        <v>35612</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C104">
-        <v>21.77801344959472</v>
+        <v>38.047</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>27303</v>
-      </c>
-      <c r="B105">
-        <v>12.99640265338094</v>
+        <v>35521</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C105">
-        <v>22.39766654405829</v>
+        <v>37.888</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>27395</v>
-      </c>
-      <c r="B106">
-        <v>13.67129527081259</v>
+        <v>35431</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C106">
-        <v>23.05302807342106</v>
+        <v>37.843</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>27485</v>
-      </c>
-      <c r="B107">
-        <v>14.26490475520121</v>
+        <v>35339</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C107">
-        <v>23.64683841351179</v>
+        <v>38.204</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>27576</v>
-      </c>
-      <c r="B108">
-        <v>14.75043590451752</v>
+        <v>35247</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C108">
-        <v>24.14423390070893</v>
+        <v>37.879</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>27668</v>
-      </c>
-      <c r="B109">
-        <v>15.22673121788845</v>
+        <v>35156</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C109">
-        <v>24.64490247308477</v>
+        <v>37.841</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>27760</v>
-      </c>
-      <c r="B110">
-        <v>15.75651926858044</v>
+        <v>35065</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C110">
-        <v>25.27672999516633</v>
+        <v>37.945</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>27851</v>
-      </c>
-      <c r="B111">
-        <v>16.32187741756795</v>
+        <v>34973</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C111">
-        <v>25.82860453468951</v>
+        <v>37.866</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>27942</v>
-      </c>
-      <c r="B112">
-        <v>16.87323411741187</v>
+        <v>34881</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C112">
-        <v>26.44472096124574</v>
+        <v>38.171</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>28034</v>
-      </c>
-      <c r="B113">
-        <v>17.40519102269116</v>
+        <v>34790</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C113">
-        <v>27.1176878272408</v>
+        <v>37.883</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>28126</v>
-      </c>
-      <c r="B114">
-        <v>17.88434856468987</v>
+        <v>34700</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C114">
-        <v>27.59645539912013</v>
+        <v>37.736</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>28216</v>
-      </c>
-      <c r="B115">
-        <v>18.27993927712584</v>
+        <v>34608</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C115">
-        <v>28.37675749779621</v>
+        <v>37.508</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>28307</v>
-      </c>
-      <c r="B116">
-        <v>18.76839687589365</v>
+        <v>34516</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C116">
-        <v>28.99410512261155</v>
+        <v>37.623</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>28399</v>
-      </c>
-      <c r="B117">
-        <v>19.33023398819408</v>
+        <v>34425</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C117">
-        <v>29.48274598684815</v>
+        <v>37.402</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>28491</v>
-      </c>
-      <c r="B118">
-        <v>19.85010738631652</v>
+        <v>34335</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C118">
-        <v>29.92151816849903</v>
+        <v>37.296</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>28581</v>
-      </c>
-      <c r="B119">
-        <v>20.4431872325701</v>
+        <v>34243</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C119">
-        <v>30.65880430509457</v>
+        <v>37.77</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>28672</v>
-      </c>
-      <c r="B120">
-        <v>21.08208138646216</v>
+        <v>34151</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C120">
-        <v>31.53569781789776</v>
+        <v>37.495</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>28764</v>
-      </c>
-      <c r="B121">
-        <v>21.67857893765415</v>
+        <v>34060</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C121">
-        <v>32.27238951753657</v>
+        <v>37.591</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>28856</v>
-      </c>
-      <c r="B122">
-        <v>22.2897824108479</v>
+        <v>33970</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C122">
-        <v>33.01258278880805</v>
+        <v>37.228</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>28946</v>
-      </c>
-      <c r="B123">
-        <v>23.04722281289632</v>
+        <v>33878</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C123">
-        <v>33.9126277989004</v>
+        <v>37.367</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>29037</v>
-      </c>
-      <c r="B124">
-        <v>23.79969092279449</v>
+        <v>33786</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C124">
-        <v>35.08477952394683</v>
+        <v>37.219</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>29129</v>
-      </c>
-      <c r="B125">
-        <v>24.66638242412815</v>
+        <v>33695</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C125">
-        <v>35.97699665459789</v>
+        <v>37.158</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>29221</v>
-      </c>
-      <c r="B126">
-        <v>25.48784090962701</v>
+        <v>33604</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C126">
-        <v>37.32878496262692</v>
+        <v>36.904</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>29312</v>
-      </c>
-      <c r="B127">
-        <v>26.43455419916459</v>
+        <v>33512</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C127">
-        <v>38.42873239514233</v>
+        <v>37.249</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>29403</v>
-      </c>
-      <c r="B128">
-        <v>27.32859312054389</v>
+        <v>33420</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C128">
-        <v>39.56044381052759</v>
+        <v>37.162</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>29495</v>
-      </c>
-      <c r="B129">
-        <v>28.13520814865861</v>
+        <v>33329</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C129">
-        <v>40.76136703254483</v>
+        <v>36.617</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>29587</v>
-      </c>
-      <c r="B130">
-        <v>28.9388044397034</v>
+        <v>33239</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C130">
-        <v>42.12617556540889</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>29677</v>
-      </c>
-      <c r="B131">
-        <v>29.91901933780862</v>
+        <v>33147</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C131">
-        <v>43.44368741116899</v>
+        <v>36.749</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>29768</v>
-      </c>
-      <c r="B132">
-        <v>31.03106837017652</v>
+        <v>33055</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C132">
-        <v>45.15002117677587</v>
+        <v>36.557</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>29860</v>
-      </c>
-      <c r="B133">
-        <v>32.2781461511334</v>
+        <v>32964</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C133">
-        <v>46.55801886715826</v>
+        <v>36.454</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>29952</v>
-      </c>
-      <c r="B134">
-        <v>33.60708600098418</v>
+        <v>32874</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C134">
-        <v>47.88115390783908</v>
+        <v>36.478</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>30042</v>
-      </c>
-      <c r="B135">
-        <v>34.48374889053402</v>
+        <v>32782</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C135">
-        <v>49.23472142727828</v>
+        <v>35.953</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>30133</v>
-      </c>
-      <c r="B136">
-        <v>35.09514521288612</v>
+        <v>32690</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C136">
-        <v>50.02660343516653</v>
+        <v>35.919</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>30225</v>
-      </c>
-      <c r="B137">
-        <v>35.80955431464778</v>
+        <v>32599</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C137">
-        <v>51.041961441034</v>
+        <v>35.607</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>30317</v>
-      </c>
-      <c r="B138">
-        <v>36.871841399292</v>
+        <v>32509</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C138">
-        <v>52.39338662010942</v>
+        <v>35.614</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>30407</v>
-      </c>
-      <c r="B139">
-        <v>37.61994438330275</v>
+        <v>32417</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C139">
-        <v>53.78021035585399</v>
+        <v>35.052</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>30498</v>
-      </c>
-      <c r="B140">
-        <v>38.60313515412021</v>
+        <v>32325</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C140">
-        <v>54.9533669289434</v>
+        <v>35.039</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>30590</v>
-      </c>
-      <c r="B141">
-        <v>39.44997106539238</v>
+        <v>32234</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C141">
-        <v>56.0787978478067</v>
+        <v>34.551</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>30682</v>
-      </c>
-      <c r="B142">
-        <v>40.22998024464695</v>
+        <v>32143</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C142">
-        <v>57.14380919520511</v>
+        <v>34.577</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>30773</v>
-      </c>
-      <c r="B143">
-        <v>41.17266260650176</v>
+        <v>32051</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C143">
-        <v>58.08309218846498</v>
+        <v>34.523</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>30864</v>
-      </c>
-      <c r="B144">
-        <v>41.42029104889389</v>
+        <v>31959</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C144">
-        <v>59.08303226356546</v>
+        <v>34.205</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>30956</v>
-      </c>
-      <c r="B145">
-        <v>42.37293793904476</v>
+        <v>31868</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C145">
-        <v>60.07494858075582</v>
+        <v>34.17</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>31048</v>
-      </c>
-      <c r="B146">
-        <v>43.14230369834777</v>
+        <v>31778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C146">
-        <v>61.02627932611605</v>
+        <v>33.675</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>31138</v>
-      </c>
-      <c r="B147">
-        <v>43.80495306954045</v>
+        <v>31686</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C147">
-        <v>62.03520127613451</v>
+        <v>33.37</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>31229</v>
-      </c>
-      <c r="B148">
-        <v>44.3088872504935</v>
+        <v>31594</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C148">
-        <v>62.6596301177832</v>
+        <v>33.253</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>31321</v>
-      </c>
-      <c r="B149">
-        <v>44.82856349721794</v>
+        <v>31503</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C149">
-        <v>63.13784460071923</v>
+        <v>32.994</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
         <v>31413</v>
       </c>
-      <c r="B150">
-        <v>45.15849574788726</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C150">
-        <v>63.29722717273969</v>
+        <v>32.779</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>31503</v>
-      </c>
-      <c r="B151">
-        <v>45.93415692300196</v>
+        <v>31321</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C151">
-        <v>63.63071613740529</v>
+        <v>32.724</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>31594</v>
-      </c>
-      <c r="B152">
-        <v>45.96052443360021</v>
+        <v>31229</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C152">
-        <v>63.97947631327735</v>
+        <v>32.46</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>31686</v>
-      </c>
-      <c r="B153">
-        <v>46.24561740093209</v>
+        <v>31138</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C153">
-        <v>64.58307289282585</v>
+        <v>32.427</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>31778</v>
-      </c>
-      <c r="B154">
-        <v>47.07773545928331</v>
+        <v>31048</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C154">
-        <v>65.11446740794624</v>
+        <v>32.491</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>31868</v>
-      </c>
-      <c r="B155">
-        <v>47.30436738330101</v>
+        <v>30956</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C155">
-        <v>65.58164608184312</v>
+        <v>31.869</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>31959</v>
-      </c>
-      <c r="B156">
-        <v>47.80284411861666</v>
+        <v>30864</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C156">
-        <v>65.98324933324704</v>
+        <v>31.994</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>32051</v>
-      </c>
-      <c r="B157">
-        <v>48.37786488260424</v>
+        <v>30773</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C157">
-        <v>66.34195528568189</v>
+        <v>31.984</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>32143</v>
-      </c>
-      <c r="B158">
-        <v>48.97859583445791</v>
+        <v>30682</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C158">
-        <v>66.70715641925763</v>
+        <v>31.755</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>32234</v>
-      </c>
-      <c r="B159">
-        <v>49.32623534350793</v>
+        <v>30590</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C159">
-        <v>67.16080215532412</v>
+        <v>31.335</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>32325</v>
-      </c>
-      <c r="B160">
-        <v>49.93507862692815</v>
+        <v>30498</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C160">
-        <v>67.77403968737799</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>32417</v>
-      </c>
-      <c r="B161">
-        <v>50.47626360998518</v>
+        <v>30407</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C161">
-        <v>68.40007068693548</v>
+        <v>31.011</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>32509</v>
-      </c>
-      <c r="B162">
-        <v>51.07127674428173</v>
+        <v>30317</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C162">
-        <v>69.11595060840098</v>
+        <v>31.615</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>32599</v>
-      </c>
-      <c r="B163">
-        <v>51.74888748038505</v>
+        <v>30225</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C163">
-        <v>69.87024918845638</v>
+        <v>31.547</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>32690</v>
-      </c>
-      <c r="B164">
-        <v>52.20212590794689</v>
+        <v>30133</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C164">
-        <v>70.3894500600847</v>
+        <v>31.125</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>32782</v>
-      </c>
-      <c r="B165">
-        <v>53.07730900013515</v>
+        <v>30042</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C165">
-        <v>70.98476083005443</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>32874</v>
-      </c>
-      <c r="B166">
-        <v>53.69197194964575</v>
+        <v>29952</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C166">
-        <v>71.34174618490138</v>
+        <v>30.704</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>32964</v>
-      </c>
-      <c r="B167">
-        <v>54.58831887274388</v>
+        <v>29860</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C167">
-        <v>71.77600464733132</v>
+        <v>30.871</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>33055</v>
-      </c>
-      <c r="B168">
-        <v>55.33768805530939</v>
+        <v>29768</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C168">
-        <v>72.32456926475292</v>
+        <v>30.487</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>33147</v>
-      </c>
-      <c r="B169">
-        <v>55.95002652538945</v>
+        <v>29677</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C169">
-        <v>72.93392502223071</v>
+        <v>30.537</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>33239</v>
-      </c>
-      <c r="B170">
-        <v>56.11880186101036</v>
+        <v>29587</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C170">
-        <v>73.27547666855708</v>
+        <v>30.241</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>33329</v>
-      </c>
-      <c r="B171">
-        <v>57.0459399859939</v>
+        <v>29495</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C171">
-        <v>73.6665597879357</v>
+        <v>30.287</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>33420</v>
-      </c>
-      <c r="B172">
-        <v>57.44526545357302</v>
+        <v>29403</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C172">
-        <v>74.29621664302599</v>
+        <v>29.973</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>33512</v>
-      </c>
-      <c r="B173">
-        <v>58.36506371162897</v>
+        <v>29312</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C173">
-        <v>74.97693934457217</v>
+        <v>29.809</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>33604</v>
-      </c>
-      <c r="B174">
-        <v>59.15761076543049</v>
+        <v>29221</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C174">
-        <v>75.36000666082307</v>
+        <v>29.961</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>33695</v>
-      </c>
-      <c r="B175">
-        <v>59.34442395059928</v>
+        <v>29129</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C175">
-        <v>75.81789562143302</v>
+        <v>29.59</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>33786</v>
-      </c>
-      <c r="B176">
-        <v>59.98838151037296</v>
+        <v>29037</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C176">
-        <v>76.16049593561205</v>
+        <v>29.458</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>33878</v>
-      </c>
-      <c r="B177">
-        <v>60.55502409059329</v>
+        <v>28946</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C177">
-        <v>76.39434360584173</v>
+        <v>29.246</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>33970</v>
-      </c>
-      <c r="B178">
-        <v>60.94894715085384</v>
+        <v>28856</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C178">
-        <v>76.77696092962391</v>
+        <v>29.038</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>34060</v>
-      </c>
-      <c r="B179">
-        <v>61.1100983659591</v>
+        <v>28764</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C179">
-        <v>76.95654004724636</v>
+        <v>28.853</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>34151</v>
-      </c>
-      <c r="B180">
-        <v>61.0915403436851</v>
+        <v>28672</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C180">
-        <v>77.12411484456638</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>34243</v>
-      </c>
-      <c r="B181">
-        <v>61.29896443966453</v>
+        <v>28581</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C181">
-        <v>77.36314058604793</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>34335</v>
-      </c>
-      <c r="B182">
-        <v>61.43355150460776</v>
+        <v>28491</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C182">
-        <v>77.51789172736176</v>
+        <v>28.257</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>34425</v>
-      </c>
-      <c r="B183">
-        <v>61.53468265180422</v>
+        <v>28399</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C183">
-        <v>77.69206811198558</v>
+        <v>27.905</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>34516</v>
-      </c>
-      <c r="B184">
-        <v>61.83750548666897</v>
+        <v>28307</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C184">
-        <v>77.86027114201363</v>
+        <v>27.714</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>34608</v>
-      </c>
-      <c r="B185">
-        <v>62.4484268356452</v>
+        <v>28216</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C185">
-        <v>77.95589817327324</v>
+        <v>27.539</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>34700</v>
-      </c>
-      <c r="B186">
-        <v>62.6014427684811</v>
+        <v>28126</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C186">
-        <v>78.13292894291283</v>
+        <v>27.381</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>34790</v>
-      </c>
-      <c r="B187">
-        <v>63.01510199916</v>
+        <v>28034</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C187">
-        <v>78.18844714483917</v>
+        <v>27.527</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>34881</v>
-      </c>
-      <c r="B188">
-        <v>63.1745826699026</v>
+        <v>27942</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C188">
-        <v>78.59501393106029</v>
+        <v>27.317</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>34973</v>
-      </c>
-      <c r="B189">
-        <v>63.26926709431897</v>
+        <v>27851</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C189">
-        <v>78.93271956907061</v>
+        <v>27.358</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>35065</v>
-      </c>
-      <c r="B190">
-        <v>63.69108632261974</v>
+        <v>27760</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C190">
-        <v>79.41563846593891</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>35156</v>
-      </c>
-      <c r="B191">
-        <v>64.06819047986069</v>
+        <v>27668</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C191">
-        <v>79.74353643142751</v>
+        <v>27.129</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>35247</v>
-      </c>
-      <c r="B192">
-        <v>64.37910484418117</v>
+        <v>27576</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C192">
-        <v>79.64117058916646</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>35339</v>
-      </c>
-      <c r="B193">
-        <v>64.37027666653871</v>
+        <v>27485</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C193">
-        <v>79.94054109248042</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>35431</v>
-      </c>
-      <c r="B194">
-        <v>64.89194779418067</v>
+        <v>27395</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C194">
-        <v>80.19231694913826</v>
+        <v>26.386</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>35521</v>
-      </c>
-      <c r="B195">
-        <v>65.02876404584565</v>
+        <v>27303</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C195">
-        <v>80.09579050734386</v>
+        <v>26.325</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>35612</v>
-      </c>
-      <c r="B196">
-        <v>65.09944169904975</v>
+        <v>27211</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C196">
-        <v>80.37111667574894</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>35704</v>
-      </c>
-      <c r="B197">
-        <v>65.37992842137712</v>
+        <v>27120</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C197">
-        <v>80.57087424909862</v>
+        <v>26.008</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>35796</v>
-      </c>
-      <c r="B198">
-        <v>65.71413958165957</v>
+        <v>27030</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C198">
-        <v>80.62361642098041</v>
+        <v>25.834</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>35886</v>
-      </c>
-      <c r="B199">
-        <v>66.03286382321822</v>
+        <v>26938</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C199">
-        <v>80.66213735319184</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>35977</v>
-      </c>
-      <c r="B200">
-        <v>66.5446520270993</v>
+        <v>26846</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C200">
-        <v>80.4579287335057</v>
+        <v>25.524</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>36069</v>
-      </c>
-      <c r="B201">
-        <v>66.68486596416238</v>
+        <v>26755</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C201">
-        <v>80.08973317013923</v>
+        <v>25.33</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>36161</v>
-      </c>
-      <c r="B202">
-        <v>66.88996329018245</v>
+        <v>26665</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C202">
-        <v>79.91582414339531</v>
+        <v>25.187</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>36251</v>
-      </c>
-      <c r="B203">
-        <v>67.15804391302055</v>
+        <v>26573</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C203">
-        <v>79.95546233977011</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>36342</v>
-      </c>
-      <c r="B204">
-        <v>67.60601699839484</v>
+        <v>26481</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C204">
-        <v>79.8818045031571</v>
+        <v>24.761</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>36434</v>
-      </c>
-      <c r="B205">
-        <v>68.0879579716367</v>
+        <v>26390</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C205">
-        <v>80.30327677471331</v>
+        <v>24.543</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>36526</v>
-      </c>
-      <c r="B206">
-        <v>68.60379839387576</v>
+        <v>26299</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C206">
-        <v>81.041264015609</v>
+        <v>24.386</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>36617</v>
-      </c>
-      <c r="B207">
-        <v>68.88550229106588</v>
+        <v>26207</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C207">
-        <v>81.48843915303657</v>
+        <v>24.179</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>36708</v>
-      </c>
-      <c r="B208">
-        <v>69.3545355711931</v>
+        <v>26115</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C208">
-        <v>82.14920627620029</v>
+        <v>23.876</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>36800</v>
-      </c>
-      <c r="B209">
-        <v>70.07371366513209</v>
+        <v>26024</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C209">
-        <v>82.75143237343082</v>
+        <v>23.828</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>36892</v>
-      </c>
-      <c r="B210">
-        <v>70.01722016031322</v>
+        <v>25934</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C210">
-        <v>82.84764762083574</v>
+        <v>23.507</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>36982</v>
-      </c>
-      <c r="B211">
-        <v>70.81208778917539</v>
+        <v>25842</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C211">
-        <v>83.54038237365977</v>
+        <v>23.204</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>37073</v>
-      </c>
-      <c r="B212">
-        <v>71.25335734529689</v>
+        <v>25750</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C212">
-        <v>83.71114728007136</v>
+        <v>22.994</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>37165</v>
-      </c>
-      <c r="B213">
-        <v>71.7495714592751</v>
+        <v>25659</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C213">
-        <v>83.66059104340694</v>
+        <v>22.797</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>37257</v>
-      </c>
-      <c r="B214">
-        <v>72.30896783904841</v>
+        <v>25569</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C214">
-        <v>84.03960156937329</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>37347</v>
-      </c>
-      <c r="B215">
-        <v>73.1052636178796</v>
+        <v>25477</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C215">
-        <v>84.15751523187484</v>
+        <v>22.394</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>37438</v>
-      </c>
-      <c r="B216">
-        <v>73.5250507749695</v>
+        <v>25385</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C216">
-        <v>84.36018365952215</v>
+        <v>22.238</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>37530</v>
-      </c>
-      <c r="B217">
-        <v>73.87525107634532</v>
+        <v>25294</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C217">
-        <v>84.62703440671035</v>
+        <v>22.088</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>37622</v>
-      </c>
-      <c r="B218">
-        <v>74.36149270316726</v>
+        <v>25204</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C218">
-        <v>85.29258115356501</v>
+        <v>21.968</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>37712</v>
-      </c>
-      <c r="B219">
-        <v>75.03246421834415</v>
+        <v>25112</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C219">
-        <v>85.31600107584615</v>
+        <v>21.797</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>37803</v>
-      </c>
-      <c r="B220">
-        <v>75.78025597469799</v>
+        <v>25020</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C220">
-        <v>85.79508127467797</v>
+        <v>21.383</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>37895</v>
-      </c>
-      <c r="B221">
-        <v>76.12017725385485</v>
+        <v>24929</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C221">
-        <v>86.32857911597473</v>
+        <v>21.061</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>37987</v>
-      </c>
-      <c r="B222">
-        <v>76.96351909530212</v>
+        <v>24838</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C222">
-        <v>86.74696590565311</v>
+        <v>21.023</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>38078</v>
-      </c>
-      <c r="B223">
-        <v>77.64718437793778</v>
+        <v>24746</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C223">
-        <v>87.3261349802104</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>38169</v>
-      </c>
-      <c r="B224">
-        <v>78.17927473641704</v>
+        <v>24654</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C224">
-        <v>87.68682707423915</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>38261</v>
-      </c>
-      <c r="B225">
-        <v>78.74392906797864</v>
+        <v>24563</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C225">
-        <v>88.07132285755908</v>
+        <v>20.679</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>38353</v>
-      </c>
-      <c r="B226">
-        <v>79.0218336197447</v>
+        <v>24473</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C226">
-        <v>88.36221665666125</v>
+        <v>20.277</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>38443</v>
-      </c>
-      <c r="B227">
-        <v>79.65665889055767</v>
+        <v>24381</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C227">
-        <v>88.75056461039931</v>
+        <v>20.116</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>38534</v>
-      </c>
-      <c r="B228">
-        <v>80.34578070273064</v>
+        <v>24289</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C228">
-        <v>89.42114507952262</v>
+        <v>19.909</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>38626</v>
-      </c>
-      <c r="B229">
-        <v>81.21499449248472</v>
+        <v>24198</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C229">
-        <v>89.64775421129913</v>
+        <v>19.689</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>38718</v>
-      </c>
-      <c r="B230">
-        <v>81.71922133388769</v>
+        <v>24108</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C230">
-        <v>90.21391517637933</v>
+        <v>19.519</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>38808</v>
-      </c>
-      <c r="B231">
-        <v>82.2565632305855</v>
+        <v>24016</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C231">
-        <v>90.78991772785717</v>
+        <v>19.528</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>38899</v>
-      </c>
-      <c r="B232">
-        <v>82.84086567430658</v>
+        <v>23924</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C232">
-        <v>91.33703103444873</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>38991</v>
-      </c>
-      <c r="B233">
-        <v>83.87085373138713</v>
+        <v>23833</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C233">
-        <v>91.36706748876968</v>
+        <v>18.995</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>39083</v>
-      </c>
-      <c r="B234">
-        <v>84.00705948460066</v>
+        <v>23743</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C234">
-        <v>91.76329022362478</v>
+        <v>18.725</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>39173</v>
-      </c>
-      <c r="B235">
-        <v>84.32703959166335</v>
+        <v>23651</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C235">
-        <v>92.44393167531561</v>
+        <v>18.551</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>39264</v>
-      </c>
-      <c r="B236">
-        <v>84.90239045584607</v>
+        <v>23559</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C236">
-        <v>93.10300183341698</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>39356</v>
-      </c>
-      <c r="B237">
-        <v>85.60531661223608</v>
+        <v>23468</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C237">
-        <v>94.1132790988068</v>
+        <v>18.342</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>39448</v>
-      </c>
-      <c r="B238">
-        <v>86.39033690434353</v>
+        <v>23377</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C238">
-        <v>94.99026696712454</v>
+        <v>18.121</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>39539</v>
-      </c>
-      <c r="B239">
-        <v>86.5211764382254</v>
+        <v>23285</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C239">
-        <v>95.91362869914873</v>
+        <v>17.882</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>39630</v>
-      </c>
-      <c r="B240">
-        <v>87.18098732796624</v>
+        <v>23193</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C240">
-        <v>95.90266398409537</v>
+        <v>17.476</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>39722</v>
-      </c>
-      <c r="B241">
-        <v>87.05320954334069</v>
+        <v>23102</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C241">
-        <v>94.99819481733154</v>
+        <v>17.802</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>39814</v>
-      </c>
-      <c r="B242">
-        <v>87.00574250303053</v>
+        <v>23012</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C242">
-        <v>94.29480965107811</v>
+        <v>17.555</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>39904</v>
-      </c>
-      <c r="B243">
-        <v>87.35992562293899</v>
+        <v>22920</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C243">
-        <v>93.8572345705669</v>
+        <v>16.731</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>39995</v>
-      </c>
-      <c r="B244">
-        <v>88.06578775983441</v>
+        <v>22828</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C244">
-        <v>93.77005472077498</v>
+        <v>17.151</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>40087</v>
-      </c>
-      <c r="B245">
-        <v>88.90632546966157</v>
+        <v>22737</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C245">
-        <v>93.88564347815698</v>
+        <v>16.948</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>40179</v>
-      </c>
-      <c r="B246">
-        <v>89.63089932611163</v>
+        <v>22647</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C246">
-        <v>94.47830473122771</v>
+        <v>16.564</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>40269</v>
-      </c>
-      <c r="B247">
-        <v>90.27638378762742</v>
+        <v>22555</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C247">
-        <v>94.98534430417567</v>
+        <v>16.276</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>40360</v>
-      </c>
-      <c r="B248">
-        <v>90.56636791107535</v>
+        <v>22463</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C248">
-        <v>95.17279301516385</v>
+        <v>16.322</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>40452</v>
-      </c>
-      <c r="B249">
-        <v>90.79928294305647</v>
+        <v>22372</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C249">
-        <v>95.53021570989469</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>40544</v>
-      </c>
-      <c r="B250">
-        <v>91.43629954996759</v>
+        <v>22282</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C250">
-        <v>96.22998885114416</v>
+        <v>15.927</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>40634</v>
-      </c>
-      <c r="B251">
-        <v>91.61178777593022</v>
+        <v>22190</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C251">
-        <v>96.69017269956537</v>
+        <v>15.636</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>40725</v>
-      </c>
-      <c r="B252">
-        <v>91.69081512345402</v>
+        <v>22098</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C252">
-        <v>96.91794308676781</v>
+        <v>15.554</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>40817</v>
-      </c>
-      <c r="B253">
-        <v>92.23993497847353</v>
+        <v>22007</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C253">
-        <v>97.30351738178649</v>
+        <v>15.582</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>40909</v>
-      </c>
-      <c r="B254">
-        <v>92.6703173536639</v>
+        <v>21916</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C254">
-        <v>97.93712429551033</v>
+        <v>15.576</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>41000</v>
-      </c>
-      <c r="B255">
-        <v>92.96578273650019</v>
+        <v>21824</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C255">
-        <v>98.15193692672779</v>
+        <v>15.295</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>41091</v>
-      </c>
-      <c r="B256">
-        <v>93.36860044152382</v>
+        <v>21732</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C256">
-        <v>98.1719649852314</v>
+        <v>15.383</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B257">
-        <v>93.83222283285463</v>
+        <v>21641</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C257">
-        <v>98.3206492411601</v>
+        <v>15.128</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>41275</v>
-      </c>
-      <c r="B258">
-        <v>93.83887592369419</v>
+        <v>21551</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C258">
-        <v>98.70526091521504</v>
+        <v>15.088</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>41365</v>
-      </c>
-      <c r="B259">
-        <v>94.41825295422385</v>
+        <v>21459</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C259">
-        <v>98.68716415551168</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>41456</v>
-      </c>
-      <c r="B260">
-        <v>94.87913233218286</v>
+        <v>21367</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C260">
-        <v>98.87278994910818</v>
+        <v>14.746</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>41548</v>
-      </c>
-      <c r="B261">
-        <v>94.95505501452831</v>
+        <v>21276</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C261">
-        <v>98.84955482811949</v>
+        <v>14.854</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>41640</v>
-      </c>
-      <c r="B262">
-        <v>95.17915482477119</v>
+        <v>21186</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C262">
-        <v>99.05288242818617</v>
+        <v>14.959</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>41730</v>
-      </c>
-      <c r="B263">
-        <v>95.51945477424763</v>
+        <v>21094</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C263">
-        <v>98.88411849796795</v>
+        <v>15.022</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>41821</v>
-      </c>
-      <c r="B264">
-        <v>95.83629779345146</v>
+        <v>21002</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C264">
-        <v>98.7995356072968</v>
+        <v>14.934</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>41913</v>
-      </c>
-      <c r="B265">
-        <v>96.16292863386022</v>
+        <v>20911</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C265">
-        <v>98.79733200272463</v>
+        <v>14.903</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B266">
-        <v>96.3814317624675</v>
+        <v>20821</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C266">
-        <v>98.82177267973692</v>
+        <v>14.816</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B267">
-        <v>96.79815879950708</v>
+        <v>20729</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C267">
-        <v>99.28722812003944</v>
+        <v>14.801</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B268">
-        <v>97.16943435793479</v>
+        <v>20637</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C268">
-        <v>99.23877431693981</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>42278</v>
-      </c>
-      <c r="B269">
-        <v>97.61704487052749</v>
+        <v>20546</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C269">
-        <v>99.2202112327968</v>
+        <v>14.513</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>42370</v>
-      </c>
-      <c r="B270">
-        <v>98.2150432781897</v>
+        <v>20455</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C270">
-        <v>99.0665096169307</v>
+        <v>14.349</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B271">
-        <v>98.13380593720757</v>
+        <v>20363</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C271">
-        <v>99.34153825913884</v>
+        <v>13.955</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B272">
-        <v>98.44632582940848</v>
+        <v>20271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C272">
-        <v>99.42062178734211</v>
+        <v>13.902</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B273">
-        <v>98.96281114487743</v>
+        <v>20180</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C273">
-        <v>99.64057460434577</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B274">
-        <v>99.80448009543016</v>
+        <v>20090</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C274">
-        <v>100.0596527457808</v>
+        <v>13.616</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>42826</v>
-      </c>
-      <c r="B275">
-        <v>100</v>
+        <v>19998</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C275">
-        <v>100</v>
+        <v>13.513</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>42917</v>
-      </c>
-      <c r="B276">
-        <v>100.4263888968361</v>
+        <v>19906</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C276">
-        <v>100.0342159719574</v>
+        <v>13.513</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>43009</v>
-      </c>
-      <c r="B277">
-        <v>101.3946811897961</v>
+        <v>19815</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C277">
-        <v>100.5853948197479</v>
+        <v>13.433</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>43101</v>
-      </c>
-      <c r="B278">
-        <v>101.2946671693721</v>
+        <v>19725</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C278">
-        <v>101.272453044691</v>
+        <v>13.429</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>43191</v>
-      </c>
-      <c r="B279">
-        <v>101.8173717249591</v>
+        <v>19633</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C279">
-        <v>101.8236277451215</v>
+        <v>13.333</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>43282</v>
-      </c>
-      <c r="B280">
-        <v>102.306973819247</v>
+        <v>19541</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C280">
-        <v>102.1160490524277</v>
+        <v>13.102</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>43374</v>
-      </c>
-      <c r="B281">
-        <v>102.9520255817083</v>
+        <v>19450</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C281">
-        <v>102.2403391480388</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>43466</v>
-      </c>
-      <c r="B282">
-        <v>101.2294701201559</v>
+        <v>19360</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C282">
-        <v>102.2227183773269</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>43556</v>
-      </c>
-      <c r="B283">
-        <v>101.0896451844684</v>
+        <v>19268</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C283">
-        <v>102.6058400330639</v>
+        <v>12.516</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B284">
-        <v>101.4124913504214</v>
+        <v>19176</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C284">
-        <v>102.8134823111778</v>
+        <v>12.394</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B285">
-        <v>101.4555812121391</v>
+        <v>19085</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C285">
-        <v>103.1784221935207</v>
+        <v>12.178</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B286">
-        <v>97.89756643698529</v>
+        <v>18994</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C286">
-        <v>103.5037760240924</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B287">
-        <v>86.83374957364911</v>
+        <v>18902</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C287">
-        <v>103.5979456626859</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B288">
-        <v>101.2066491729858</v>
+        <v>18810</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C288">
-        <v>103.6111045669571</v>
+        <v>12.146</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B289">
-        <v>99.10315455547996</v>
+        <v>18719</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C289">
-        <v>103.788768271884</v>
+        <v>12.002</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B290">
-        <v>99.41759269371524</v>
+        <v>18629</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C290">
-        <v>104.4237083022369</v>
+        <v>12.037</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B291">
-        <v>99.41996801096515</v>
+        <v>18537</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C291">
-        <v>104.7642620937294</v>
+        <v>11.957</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>44378</v>
-      </c>
-      <c r="B292">
-        <v>103.8859863861249</v>
+        <v>18445</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C292">
-        <v>105.5084703872434</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <v>44470</v>
-      </c>
-      <c r="B293">
-        <v>104.1745898520824</v>
+        <v>18354</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C293">
-        <v>106.4410644220189</v>
+        <v>11.472</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <v>44562</v>
-      </c>
-      <c r="B294">
-        <v>106.0064565734117</v>
+        <v>18264</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C294">
-        <v>107.7584315035108</v>
+        <v>11.188</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <v>44652</v>
-      </c>
-      <c r="B295">
-        <v>106.5712153036881</v>
+        <v>18172</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C295">
-        <v>109.9083388769891</v>
+        <v>10.858</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B296">
-        <v>106.7172513401022</v>
+        <v>18080</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C296">
-        <v>111.7799916804193</v>
+        <v>11.052</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <v>44835</v>
-      </c>
-      <c r="B297">
-        <v>108.2680702170103</v>
+        <v>17989</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C297">
-        <v>114.0379420437314</v>
+        <v>10.587</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <v>44927</v>
+        <v>17899</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Produits agro-alimentaires</t>
+        </is>
       </c>
       <c r="C298">
-        <v>116.5042541020707</v>
+        <v>10.515</v>
       </c>
     </row>
   </sheetData>
